--- a/InputFiles/TC04_CDS_Filter_Tumor-Notspecifiedindata.xlsx
+++ b/InputFiles/TC04_CDS_Filter_Tumor-Notspecifiedindata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kallakuriv2\Automation 0707\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49661D4-A2F1-4795-9262-B6DB58F7512B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A576FEBE-3D4A-465F-98B5-94CD88BF9AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -155,8 +155,8 @@
     coalesce(f.file_name, '') as `File Name`,
     coalesce(s.study_name,'') as `Study Name`,
     coalesce(s.phs_accession,'') as `Accession`,
-    coalesce(p.participant_id, 'Not specified in data') as `Participant ID`,
-    coalesce(samp.sample_id, 'Not specified in data') as `Sample ID`,
+    coalesce(p.participant_id, '') as `Participant ID`,
+    coalesce(samp.sample_id, '') as `Sample ID`,
     coalesce(f.file_type, '') as `File Type`
 ORDER BY f.file_name limit 100</t>
   </si>
@@ -539,19 +539,19 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="75.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="70.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="63.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="75.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="70.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="63.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -568,7 +568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="409.6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -585,7 +585,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="409.6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -602,7 +602,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -619,11 +619,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C6" s="2"/>
     </row>
   </sheetData>
